--- a/3pt_nba.xlsx
+++ b/3pt_nba.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ef875008baf77a9/Desktop/mate_sport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4DB114E441178AC67DF45A5E13EC16693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60F1FC2-A2E3-4DA5-AEE5-FFE6D91A52BF}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4DB114E441178AC67DF45A5E13EC16693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1443875B-1FEA-48DB-B977-505C41FEEE48}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="11052" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>3pt fatti</t>
   </si>
@@ -128,15 +128,29 @@
   <si>
     <t>nyor</t>
   </si>
+  <si>
+    <t>correlazione</t>
+  </si>
+  <si>
+    <t>correlazioni</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,13 +173,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -179,6 +207,979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>andamento delle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> correlazioni</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$34:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$34:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.25511465183722565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43449558966055546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24131993716424818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31153485336625397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23664689383506721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3176422116991322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17345050304464274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5933254936175605E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.3310909014669028E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26444823272072043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28619131571999928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E294-47D4-BCC9-D4774F5B777F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="820373535"/>
+        <c:axId val="816198655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="820373535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816198655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="816198655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820373535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504008</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>199208</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>151312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0043A1-E58F-1DF8-3867-0DD55A20BD61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,15 +1445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2023</v>
       </c>
@@ -468,8 +1470,41 @@
       <c r="E1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="K1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2020</v>
+      </c>
+      <c r="O1">
+        <v>2019</v>
+      </c>
+      <c r="Q1">
+        <v>2018</v>
+      </c>
+      <c r="S1">
+        <v>2017</v>
+      </c>
+      <c r="U1">
+        <v>2016</v>
+      </c>
+      <c r="W1">
+        <v>2015</v>
+      </c>
+      <c r="Y1">
+        <v>2014</v>
+      </c>
+      <c r="AA1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,8 +1520,74 @@
       <c r="E2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I2">
+        <v>494</v>
+      </c>
+      <c r="J2">
+        <v>31.1</v>
+      </c>
+      <c r="K2">
+        <v>517</v>
+      </c>
+      <c r="L2">
+        <v>34.4</v>
+      </c>
+      <c r="M2">
+        <v>567</v>
+      </c>
+      <c r="N2">
+        <v>33.5</v>
+      </c>
+      <c r="O2">
+        <v>299</v>
+      </c>
+      <c r="P2">
+        <v>36.1</v>
+      </c>
+      <c r="Q2">
+        <v>354</v>
+      </c>
+      <c r="R2">
+        <v>37</v>
+      </c>
+      <c r="S2">
+        <v>293</v>
+      </c>
+      <c r="T2">
+        <v>31</v>
+      </c>
+      <c r="U2">
+        <v>511</v>
+      </c>
+      <c r="V2">
+        <v>26.1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>565</v>
+      </c>
+      <c r="X2">
+        <v>28.8</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>694</v>
+      </c>
+      <c r="Z2">
+        <v>26.6</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>461</v>
+      </c>
+      <c r="AB2">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -502,8 +1603,74 @@
       <c r="E3">
         <v>695</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>695</v>
+      </c>
+      <c r="H3">
+        <v>42.9</v>
+      </c>
+      <c r="I3">
+        <v>667</v>
+      </c>
+      <c r="J3">
+        <v>41.8</v>
+      </c>
+      <c r="K3">
+        <v>613</v>
+      </c>
+      <c r="L3">
+        <v>37</v>
+      </c>
+      <c r="M3">
+        <v>487</v>
+      </c>
+      <c r="N3">
+        <v>36.5</v>
+      </c>
+      <c r="O3">
+        <v>652</v>
+      </c>
+      <c r="P3">
+        <v>34.9</v>
+      </c>
+      <c r="Q3">
+        <v>593</v>
+      </c>
+      <c r="R3">
+        <v>34.4</v>
+      </c>
+      <c r="S3">
+        <v>654</v>
+      </c>
+      <c r="T3">
+        <v>30.4</v>
+      </c>
+      <c r="U3">
+        <v>620</v>
+      </c>
+      <c r="V3">
+        <v>33.6</v>
+      </c>
+      <c r="W3" s="1">
+        <v>568</v>
+      </c>
+      <c r="X3">
+        <v>26.5</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>465</v>
+      </c>
+      <c r="Z3">
+        <v>24.5</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>305</v>
+      </c>
+      <c r="AB3">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -519,8 +1686,74 @@
       <c r="E4">
         <v>549</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>549</v>
+      </c>
+      <c r="H4">
+        <v>36.9</v>
+      </c>
+      <c r="I4">
+        <v>523</v>
+      </c>
+      <c r="J4">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K4">
+        <v>517</v>
+      </c>
+      <c r="L4">
+        <v>31.5</v>
+      </c>
+      <c r="M4">
+        <v>655</v>
+      </c>
+      <c r="N4">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>461</v>
+      </c>
+      <c r="P4">
+        <v>38.6</v>
+      </c>
+      <c r="Q4">
+        <v>494</v>
+      </c>
+      <c r="R4">
+        <v>36</v>
+      </c>
+      <c r="S4">
+        <v>342</v>
+      </c>
+      <c r="T4">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="U4">
+        <v>244</v>
+      </c>
+      <c r="V4">
+        <v>31.6</v>
+      </c>
+      <c r="W4" s="1">
+        <v>256</v>
+      </c>
+      <c r="X4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>455</v>
+      </c>
+      <c r="Z4">
+        <v>20.2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>521</v>
+      </c>
+      <c r="AB4">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -533,8 +1766,77 @@
       <c r="D5">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>329</v>
+      </c>
+      <c r="G5">
+        <v>329</v>
+      </c>
+      <c r="H5">
+        <v>31.5</v>
+      </c>
+      <c r="I5">
+        <v>329</v>
+      </c>
+      <c r="J5">
+        <v>32.5</v>
+      </c>
+      <c r="K5">
+        <v>518</v>
+      </c>
+      <c r="L5">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M5">
+        <v>452</v>
+      </c>
+      <c r="N5">
+        <v>37.1</v>
+      </c>
+      <c r="O5">
+        <v>354</v>
+      </c>
+      <c r="P5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Q5">
+        <v>476</v>
+      </c>
+      <c r="R5">
+        <v>33.9</v>
+      </c>
+      <c r="S5">
+        <v>439</v>
+      </c>
+      <c r="T5">
+        <v>27.2</v>
+      </c>
+      <c r="U5">
+        <v>439</v>
+      </c>
+      <c r="V5">
+        <v>28.6</v>
+      </c>
+      <c r="W5" s="1">
+        <v>573</v>
+      </c>
+      <c r="X5">
+        <v>28.5</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>402</v>
+      </c>
+      <c r="Z5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB5">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -547,8 +1849,77 @@
       <c r="D6">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>488</v>
+      </c>
+      <c r="G6">
+        <v>488</v>
+      </c>
+      <c r="H6">
+        <v>32.6</v>
+      </c>
+      <c r="I6">
+        <v>488</v>
+      </c>
+      <c r="J6">
+        <v>28.8</v>
+      </c>
+      <c r="K6">
+        <v>540</v>
+      </c>
+      <c r="L6">
+        <v>29.3</v>
+      </c>
+      <c r="M6">
+        <v>431</v>
+      </c>
+      <c r="N6">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>339</v>
+      </c>
+      <c r="P6">
+        <v>35.1</v>
+      </c>
+      <c r="Q6">
+        <v>268</v>
+      </c>
+      <c r="R6">
+        <v>25.9</v>
+      </c>
+      <c r="S6">
+        <v>329</v>
+      </c>
+      <c r="T6">
+        <v>31.1</v>
+      </c>
+      <c r="U6">
+        <v>489</v>
+      </c>
+      <c r="V6">
+        <v>22.4</v>
+      </c>
+      <c r="W6" s="1">
+        <v>512</v>
+      </c>
+      <c r="X6">
+        <v>21.4</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>596</v>
+      </c>
+      <c r="Z6">
+        <v>22.6</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>563</v>
+      </c>
+      <c r="AB6">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -564,8 +1935,74 @@
       <c r="E7">
         <v>622</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>622</v>
+      </c>
+      <c r="H7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I7">
+        <v>598</v>
+      </c>
+      <c r="J7">
+        <v>31.5</v>
+      </c>
+      <c r="K7">
+        <v>524</v>
+      </c>
+      <c r="L7">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M7">
+        <v>306</v>
+      </c>
+      <c r="N7">
+        <v>29.7</v>
+      </c>
+      <c r="O7">
+        <v>292</v>
+      </c>
+      <c r="P7">
+        <v>31.8</v>
+      </c>
+      <c r="Q7">
+        <v>232</v>
+      </c>
+      <c r="R7">
+        <v>29.1</v>
+      </c>
+      <c r="S7">
+        <v>596</v>
+      </c>
+      <c r="T7">
+        <v>31.8</v>
+      </c>
+      <c r="U7">
+        <v>640</v>
+      </c>
+      <c r="V7">
+        <v>33.9</v>
+      </c>
+      <c r="W7" s="1">
+        <v>709</v>
+      </c>
+      <c r="X7">
+        <v>29.7</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>663</v>
+      </c>
+      <c r="Z7">
+        <v>27.7</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>402</v>
+      </c>
+      <c r="AB7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -578,8 +2015,77 @@
       <c r="D8">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>463</v>
+      </c>
+      <c r="G8">
+        <v>463</v>
+      </c>
+      <c r="H8">
+        <v>41.9</v>
+      </c>
+      <c r="I8">
+        <v>463</v>
+      </c>
+      <c r="J8">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>610</v>
+      </c>
+      <c r="L8">
+        <v>38.1</v>
+      </c>
+      <c r="M8">
+        <v>570</v>
+      </c>
+      <c r="N8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O8">
+        <v>556</v>
+      </c>
+      <c r="P8">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>402</v>
+      </c>
+      <c r="R8">
+        <v>36.6</v>
+      </c>
+      <c r="S8">
+        <v>293</v>
+      </c>
+      <c r="T8">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="U8">
+        <v>402</v>
+      </c>
+      <c r="V8">
+        <v>30.2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>494</v>
+      </c>
+      <c r="X8">
+        <v>28.1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>586</v>
+      </c>
+      <c r="Z8">
+        <v>25.3</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>584</v>
+      </c>
+      <c r="AB8">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -592,8 +2098,77 @@
       <c r="D9">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>646</v>
+      </c>
+      <c r="G9">
+        <v>646</v>
+      </c>
+      <c r="H9">
+        <v>31.9</v>
+      </c>
+      <c r="I9">
+        <v>677</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>563</v>
+      </c>
+      <c r="L9">
+        <v>35.6</v>
+      </c>
+      <c r="M9">
+        <v>622</v>
+      </c>
+      <c r="N9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O9">
+        <v>598</v>
+      </c>
+      <c r="P9">
+        <v>31</v>
+      </c>
+      <c r="Q9">
+        <v>635</v>
+      </c>
+      <c r="R9">
+        <v>30.8</v>
+      </c>
+      <c r="S9">
+        <v>561</v>
+      </c>
+      <c r="T9">
+        <v>30.9</v>
+      </c>
+      <c r="U9">
+        <v>488</v>
+      </c>
+      <c r="V9">
+        <v>28.8</v>
+      </c>
+      <c r="W9" s="1">
+        <v>402</v>
+      </c>
+      <c r="X9">
+        <v>23.7</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>366</v>
+      </c>
+      <c r="Z9">
+        <v>24.8</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>439</v>
+      </c>
+      <c r="AB9">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -606,8 +2181,77 @@
       <c r="D10">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>207</v>
+      </c>
+      <c r="G10">
+        <v>207</v>
+      </c>
+      <c r="H10">
+        <v>29.8</v>
+      </c>
+      <c r="I10">
+        <v>207</v>
+      </c>
+      <c r="J10">
+        <v>32.4</v>
+      </c>
+      <c r="K10">
+        <v>281</v>
+      </c>
+      <c r="L10">
+        <v>34.6</v>
+      </c>
+      <c r="M10">
+        <v>278</v>
+      </c>
+      <c r="N10">
+        <v>32.9</v>
+      </c>
+      <c r="O10">
+        <v>303</v>
+      </c>
+      <c r="P10">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>477</v>
+      </c>
+      <c r="R10">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="S10">
+        <v>476</v>
+      </c>
+      <c r="T10">
+        <v>28.9</v>
+      </c>
+      <c r="U10">
+        <v>451</v>
+      </c>
+      <c r="V10">
+        <v>23.4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>512</v>
+      </c>
+      <c r="X10">
+        <v>26.1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>390</v>
+      </c>
+      <c r="Z10">
+        <v>24.8</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>354</v>
+      </c>
+      <c r="AB10">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -620,8 +2264,77 @@
       <c r="D11">
         <v>40.299999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>537</v>
+      </c>
+      <c r="G11">
+        <v>537</v>
+      </c>
+      <c r="H11">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I11">
+        <v>526</v>
+      </c>
+      <c r="J11">
+        <v>43.1</v>
+      </c>
+      <c r="K11">
+        <v>664</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>527</v>
+      </c>
+      <c r="N11">
+        <v>38.6</v>
+      </c>
+      <c r="O11">
+        <v>231</v>
+      </c>
+      <c r="P11">
+        <v>31.3</v>
+      </c>
+      <c r="Q11">
+        <v>683</v>
+      </c>
+      <c r="R11">
+        <v>34.1</v>
+      </c>
+      <c r="S11">
+        <v>718</v>
+      </c>
+      <c r="T11">
+        <v>29.4</v>
+      </c>
+      <c r="U11">
+        <v>838</v>
+      </c>
+      <c r="V11">
+        <v>31.5</v>
+      </c>
+      <c r="W11" s="1">
+        <v>830</v>
+      </c>
+      <c r="X11">
+        <v>31.8</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>804</v>
+      </c>
+      <c r="Z11">
+        <v>27.7</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>607</v>
+      </c>
+      <c r="AB11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -634,8 +2347,77 @@
       <c r="D12">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>268</v>
+      </c>
+      <c r="G12">
+        <v>268</v>
+      </c>
+      <c r="H12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I12">
+        <v>268</v>
+      </c>
+      <c r="J12">
+        <v>31.9</v>
+      </c>
+      <c r="K12">
+        <v>244</v>
+      </c>
+      <c r="L12">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="M12">
+        <v>236</v>
+      </c>
+      <c r="N12">
+        <v>40.6</v>
+      </c>
+      <c r="O12">
+        <v>583</v>
+      </c>
+      <c r="P12">
+        <v>45.5</v>
+      </c>
+      <c r="Q12">
+        <v>634</v>
+      </c>
+      <c r="R12">
+        <v>45.1</v>
+      </c>
+      <c r="S12">
+        <v>768</v>
+      </c>
+      <c r="T12">
+        <v>41.9</v>
+      </c>
+      <c r="U12">
+        <v>656</v>
+      </c>
+      <c r="V12">
+        <v>40.1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>483</v>
+      </c>
+      <c r="X12">
+        <v>30.7</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>657</v>
+      </c>
+      <c r="Z12">
+        <v>21.8</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>636</v>
+      </c>
+      <c r="AB12">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -648,8 +2430,77 @@
       <c r="D13">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>427</v>
+      </c>
+      <c r="G13">
+        <v>427</v>
+      </c>
+      <c r="H13">
+        <v>38.4</v>
+      </c>
+      <c r="I13">
+        <v>427</v>
+      </c>
+      <c r="J13">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>305</v>
+      </c>
+      <c r="L13">
+        <v>35.4</v>
+      </c>
+      <c r="M13">
+        <v>473</v>
+      </c>
+      <c r="N13">
+        <v>34.1</v>
+      </c>
+      <c r="O13">
+        <v>584</v>
+      </c>
+      <c r="P13">
+        <v>28.2</v>
+      </c>
+      <c r="Q13">
+        <v>558</v>
+      </c>
+      <c r="R13">
+        <v>25.6</v>
+      </c>
+      <c r="S13">
+        <v>573</v>
+      </c>
+      <c r="T13">
+        <v>24.7</v>
+      </c>
+      <c r="U13">
+        <v>488</v>
+      </c>
+      <c r="V13">
+        <v>23.3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>539</v>
+      </c>
+      <c r="X13">
+        <v>22.9</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>463</v>
+      </c>
+      <c r="Z13">
+        <v>21.2</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>654</v>
+      </c>
+      <c r="AB13">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -662,8 +2513,77 @@
       <c r="D14">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>537</v>
+      </c>
+      <c r="G14">
+        <v>537</v>
+      </c>
+      <c r="H14">
+        <v>32.9</v>
+      </c>
+      <c r="I14">
+        <v>517</v>
+      </c>
+      <c r="J14">
+        <v>33.4</v>
+      </c>
+      <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="M14">
+        <v>626</v>
+      </c>
+      <c r="N14">
+        <v>35</v>
+      </c>
+      <c r="O14">
+        <v>659</v>
+      </c>
+      <c r="P14">
+        <v>33.4</v>
+      </c>
+      <c r="Q14">
+        <v>568</v>
+      </c>
+      <c r="R14">
+        <v>26.2</v>
+      </c>
+      <c r="S14">
+        <v>512</v>
+      </c>
+      <c r="T14">
+        <v>26.8</v>
+      </c>
+      <c r="U14">
+        <v>607</v>
+      </c>
+      <c r="V14">
+        <v>27.1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>625</v>
+      </c>
+      <c r="X14">
+        <v>26.2</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>656</v>
+      </c>
+      <c r="Z14">
+        <v>26.6</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>663</v>
+      </c>
+      <c r="AB14">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -676,8 +2596,77 @@
       <c r="D15">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>524</v>
+      </c>
+      <c r="G15">
+        <v>524</v>
+      </c>
+      <c r="H15">
+        <v>29.9</v>
+      </c>
+      <c r="I15">
+        <v>525</v>
+      </c>
+      <c r="J15">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>402</v>
+      </c>
+      <c r="L15">
+        <v>34.5</v>
+      </c>
+      <c r="M15">
+        <v>570</v>
+      </c>
+      <c r="N15">
+        <v>31.3</v>
+      </c>
+      <c r="O15">
+        <v>739</v>
+      </c>
+      <c r="P15">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Q15">
+        <v>451</v>
+      </c>
+      <c r="R15">
+        <v>31</v>
+      </c>
+      <c r="S15">
+        <v>427</v>
+      </c>
+      <c r="T15">
+        <v>29.1</v>
+      </c>
+      <c r="U15">
+        <v>317</v>
+      </c>
+      <c r="V15">
+        <v>25.7</v>
+      </c>
+      <c r="W15" s="1">
+        <v>207</v>
+      </c>
+      <c r="X15">
+        <v>24.6</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>256</v>
+      </c>
+      <c r="Z15">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>329</v>
+      </c>
+      <c r="AB15">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -690,8 +2679,77 @@
       <c r="D16">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>622</v>
+      </c>
+      <c r="G16">
+        <v>622</v>
+      </c>
+      <c r="H16">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I16">
+        <v>602</v>
+      </c>
+      <c r="J16">
+        <v>34.5</v>
+      </c>
+      <c r="K16">
+        <v>660</v>
+      </c>
+      <c r="L16">
+        <v>33.1</v>
+      </c>
+      <c r="M16">
+        <v>519</v>
+      </c>
+      <c r="N16">
+        <v>31.3</v>
+      </c>
+      <c r="O16">
+        <v>460</v>
+      </c>
+      <c r="P16">
+        <v>31.4</v>
+      </c>
+      <c r="Q16">
+        <v>402</v>
+      </c>
+      <c r="R16">
+        <v>28.9</v>
+      </c>
+      <c r="S16">
+        <v>268</v>
+      </c>
+      <c r="T16">
+        <v>26.2</v>
+      </c>
+      <c r="U16">
+        <v>511</v>
+      </c>
+      <c r="V16">
+        <v>26.3</v>
+      </c>
+      <c r="W16" s="1">
+        <v>488</v>
+      </c>
+      <c r="X16">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>656</v>
+      </c>
+      <c r="Z16">
+        <v>15.1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>596</v>
+      </c>
+      <c r="AB16">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -707,8 +2765,74 @@
       <c r="E17">
         <v>537</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>537</v>
+      </c>
+      <c r="H17">
+        <v>32.9</v>
+      </c>
+      <c r="I17">
+        <v>542</v>
+      </c>
+      <c r="J17">
+        <v>34.5</v>
+      </c>
+      <c r="K17">
+        <v>640</v>
+      </c>
+      <c r="L17">
+        <v>35.6</v>
+      </c>
+      <c r="M17">
+        <v>526</v>
+      </c>
+      <c r="N17">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="O17">
+        <v>617</v>
+      </c>
+      <c r="P17">
+        <v>35.4</v>
+      </c>
+      <c r="Q17">
+        <v>476</v>
+      </c>
+      <c r="R17">
+        <v>32.4</v>
+      </c>
+      <c r="S17">
+        <v>517</v>
+      </c>
+      <c r="T17">
+        <v>30.4</v>
+      </c>
+      <c r="U17">
+        <v>500</v>
+      </c>
+      <c r="V17">
+        <v>27</v>
+      </c>
+      <c r="W17" s="1">
+        <v>573</v>
+      </c>
+      <c r="X17">
+        <v>18.2</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>451</v>
+      </c>
+      <c r="Z17">
+        <v>20.2</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>663</v>
+      </c>
+      <c r="AB17">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -724,8 +2848,74 @@
       <c r="E18">
         <v>707</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>707</v>
+      </c>
+      <c r="H18">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I18">
+        <v>679</v>
+      </c>
+      <c r="J18">
+        <v>40.4</v>
+      </c>
+      <c r="K18">
+        <v>617</v>
+      </c>
+      <c r="L18">
+        <v>37.6</v>
+      </c>
+      <c r="M18">
+        <v>653</v>
+      </c>
+      <c r="N18">
+        <v>36.6</v>
+      </c>
+      <c r="O18">
+        <v>735</v>
+      </c>
+      <c r="P18">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Q18">
+        <v>722</v>
+      </c>
+      <c r="R18">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="S18">
+        <v>528</v>
+      </c>
+      <c r="T18">
+        <v>24.8</v>
+      </c>
+      <c r="U18">
+        <v>500</v>
+      </c>
+      <c r="V18">
+        <v>23.6</v>
+      </c>
+      <c r="W18" s="1">
+        <v>402</v>
+      </c>
+      <c r="X18">
+        <v>15.6</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>489</v>
+      </c>
+      <c r="Z18">
+        <v>18.3</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>183</v>
+      </c>
+      <c r="AB18">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -738,8 +2928,77 @@
       <c r="D19">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>512</v>
+      </c>
+      <c r="G19">
+        <v>512</v>
+      </c>
+      <c r="H19">
+        <v>31.5</v>
+      </c>
+      <c r="I19">
+        <v>494</v>
+      </c>
+      <c r="J19">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K19">
+        <v>551</v>
+      </c>
+      <c r="L19">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="M19">
+        <v>319</v>
+      </c>
+      <c r="N19">
+        <v>37.6</v>
+      </c>
+      <c r="O19">
+        <v>297</v>
+      </c>
+      <c r="P19">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>439</v>
+      </c>
+      <c r="R19">
+        <v>28.7</v>
+      </c>
+      <c r="S19">
+        <v>552</v>
+      </c>
+      <c r="T19">
+        <v>22.5</v>
+      </c>
+      <c r="U19">
+        <v>378</v>
+      </c>
+      <c r="V19">
+        <v>21</v>
+      </c>
+      <c r="W19" s="1">
+        <v>354</v>
+      </c>
+      <c r="X19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>195</v>
+      </c>
+      <c r="Z19">
+        <v>14.9</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>488</v>
+      </c>
+      <c r="AB19">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -752,8 +3011,77 @@
       <c r="D20">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>512</v>
+      </c>
+      <c r="G20">
+        <v>512</v>
+      </c>
+      <c r="H20">
+        <v>30.9</v>
+      </c>
+      <c r="I20">
+        <v>506</v>
+      </c>
+      <c r="J20">
+        <v>30.1</v>
+      </c>
+      <c r="K20">
+        <v>444</v>
+      </c>
+      <c r="L20">
+        <v>31.4</v>
+      </c>
+      <c r="M20">
+        <v>431</v>
+      </c>
+      <c r="N20">
+        <v>30.4</v>
+      </c>
+      <c r="O20">
+        <v>417</v>
+      </c>
+      <c r="P20">
+        <v>36.9</v>
+      </c>
+      <c r="Q20">
+        <v>402</v>
+      </c>
+      <c r="R20">
+        <v>29.9</v>
+      </c>
+      <c r="S20">
+        <v>582</v>
+      </c>
+      <c r="T20">
+        <v>28.1</v>
+      </c>
+      <c r="U20">
+        <v>415</v>
+      </c>
+      <c r="V20">
+        <v>26.8</v>
+      </c>
+      <c r="W20" s="1">
+        <v>366</v>
+      </c>
+      <c r="X20">
+        <v>23.8</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>523</v>
+      </c>
+      <c r="Z20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>415</v>
+      </c>
+      <c r="AB20">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -769,8 +3097,74 @@
       <c r="E21">
         <v>573</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>573</v>
+      </c>
+      <c r="H21">
+        <v>34.4</v>
+      </c>
+      <c r="I21">
+        <v>570</v>
+      </c>
+      <c r="J21">
+        <v>35.4</v>
+      </c>
+      <c r="K21">
+        <v>451</v>
+      </c>
+      <c r="L21">
+        <v>36.9</v>
+      </c>
+      <c r="M21">
+        <v>546</v>
+      </c>
+      <c r="N21">
+        <v>30.1</v>
+      </c>
+      <c r="O21">
+        <v>318</v>
+      </c>
+      <c r="P21">
+        <v>28.4</v>
+      </c>
+      <c r="Q21">
+        <v>207</v>
+      </c>
+      <c r="R21">
+        <v>29.5</v>
+      </c>
+      <c r="S21">
+        <v>354</v>
+      </c>
+      <c r="T21">
+        <v>23.3</v>
+      </c>
+      <c r="U21">
+        <v>378</v>
+      </c>
+      <c r="V21">
+        <v>24.7</v>
+      </c>
+      <c r="W21" s="1">
+        <v>390</v>
+      </c>
+      <c r="X21">
+        <v>21.5</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>207</v>
+      </c>
+      <c r="Z21">
+        <v>19.7</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>451</v>
+      </c>
+      <c r="AB21">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -783,8 +3177,77 @@
       <c r="D22">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>488</v>
+      </c>
+      <c r="G22">
+        <v>488</v>
+      </c>
+      <c r="H22">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I22">
+        <v>488</v>
+      </c>
+      <c r="J22">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K22">
+        <v>293</v>
+      </c>
+      <c r="L22">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M22">
+        <v>306</v>
+      </c>
+      <c r="N22">
+        <v>35.1</v>
+      </c>
+      <c r="O22">
+        <v>595</v>
+      </c>
+      <c r="P22">
+        <v>30.7</v>
+      </c>
+      <c r="Q22">
+        <v>575</v>
+      </c>
+      <c r="R22">
+        <v>32.6</v>
+      </c>
+      <c r="S22">
+        <v>568</v>
+      </c>
+      <c r="T22">
+        <v>30.3</v>
+      </c>
+      <c r="U22">
+        <v>552</v>
+      </c>
+      <c r="V22">
+        <v>25.9</v>
+      </c>
+      <c r="W22" s="1">
+        <v>660</v>
+      </c>
+      <c r="X22">
+        <v>23.9</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>549</v>
+      </c>
+      <c r="Z22">
+        <v>22.7</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>683</v>
+      </c>
+      <c r="AB22">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -797,8 +3260,77 @@
       <c r="D23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>415</v>
+      </c>
+      <c r="G23">
+        <v>415</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>415</v>
+      </c>
+      <c r="J23">
+        <v>31.1</v>
+      </c>
+      <c r="K23">
+        <v>268</v>
+      </c>
+      <c r="L23">
+        <v>36.9</v>
+      </c>
+      <c r="M23">
+        <v>292</v>
+      </c>
+      <c r="N23">
+        <v>31.8</v>
+      </c>
+      <c r="O23">
+        <v>436</v>
+      </c>
+      <c r="P23">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Q23">
+        <v>494</v>
+      </c>
+      <c r="R23">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="S23">
+        <v>305</v>
+      </c>
+      <c r="T23">
+        <v>29.3</v>
+      </c>
+      <c r="U23">
+        <v>354</v>
+      </c>
+      <c r="V23">
+        <v>26.1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>427</v>
+      </c>
+      <c r="X23">
+        <v>22.2</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>305</v>
+      </c>
+      <c r="Z23">
+        <v>19.5</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>281</v>
+      </c>
+      <c r="AB23">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -814,8 +3346,74 @@
       <c r="E24">
         <v>659</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>659</v>
+      </c>
+      <c r="H24">
+        <v>32.6</v>
+      </c>
+      <c r="I24">
+        <v>656</v>
+      </c>
+      <c r="J24">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K24">
+        <v>606</v>
+      </c>
+      <c r="L24">
+        <v>32</v>
+      </c>
+      <c r="M24">
+        <v>667</v>
+      </c>
+      <c r="N24">
+        <v>29.9</v>
+      </c>
+      <c r="O24">
+        <v>558</v>
+      </c>
+      <c r="P24">
+        <v>31.5</v>
+      </c>
+      <c r="Q24">
+        <v>617</v>
+      </c>
+      <c r="R24">
+        <v>29.9</v>
+      </c>
+      <c r="S24">
+        <v>620</v>
+      </c>
+      <c r="T24">
+        <v>29.8</v>
+      </c>
+      <c r="U24">
+        <v>342</v>
+      </c>
+      <c r="V24">
+        <v>29.8</v>
+      </c>
+      <c r="W24" s="1">
+        <v>122</v>
+      </c>
+      <c r="X24">
+        <v>27.5</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>220</v>
+      </c>
+      <c r="Z24">
+        <v>26.3</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>232</v>
+      </c>
+      <c r="AB24">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -828,8 +3426,77 @@
       <c r="D25">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>549</v>
+      </c>
+      <c r="G25">
+        <v>549</v>
+      </c>
+      <c r="H25">
+        <v>31.4</v>
+      </c>
+      <c r="I25">
+        <v>548</v>
+      </c>
+      <c r="J25">
+        <v>31.8</v>
+      </c>
+      <c r="K25">
+        <v>747</v>
+      </c>
+      <c r="L25">
+        <v>31.3</v>
+      </c>
+      <c r="M25">
+        <v>692</v>
+      </c>
+      <c r="N25">
+        <v>33.4</v>
+      </c>
+      <c r="O25">
+        <v>466</v>
+      </c>
+      <c r="P25">
+        <v>31.8</v>
+      </c>
+      <c r="Q25">
+        <v>232</v>
+      </c>
+      <c r="R25">
+        <v>29.3</v>
+      </c>
+      <c r="S25">
+        <v>256</v>
+      </c>
+      <c r="T25">
+        <v>27.9</v>
+      </c>
+      <c r="U25">
+        <v>293</v>
+      </c>
+      <c r="V25">
+        <v>22.6</v>
+      </c>
+      <c r="W25" s="1">
+        <v>281</v>
+      </c>
+      <c r="X25">
+        <v>25.8</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>476</v>
+      </c>
+      <c r="Z25">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>585</v>
+      </c>
+      <c r="AB25">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -842,8 +3509,77 @@
       <c r="D26">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>402</v>
+      </c>
+      <c r="G26">
+        <v>402</v>
+      </c>
+      <c r="H26">
+        <v>34.4</v>
+      </c>
+      <c r="I26">
+        <v>402</v>
+      </c>
+      <c r="J26">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K26">
+        <v>329</v>
+      </c>
+      <c r="L26">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M26">
+        <v>564</v>
+      </c>
+      <c r="N26">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="O26">
+        <v>463</v>
+      </c>
+      <c r="P26">
+        <v>34</v>
+      </c>
+      <c r="Q26">
+        <v>622</v>
+      </c>
+      <c r="R26">
+        <v>31.1</v>
+      </c>
+      <c r="S26">
+        <v>570</v>
+      </c>
+      <c r="T26">
+        <v>28.3</v>
+      </c>
+      <c r="U26">
+        <v>477</v>
+      </c>
+      <c r="V26">
+        <v>28</v>
+      </c>
+      <c r="W26" s="1">
+        <v>527</v>
+      </c>
+      <c r="X26">
+        <v>28.8</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>598</v>
+      </c>
+      <c r="Z26">
+        <v>27.1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>634</v>
+      </c>
+      <c r="AB26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -856,8 +3592,77 @@
       <c r="D27">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>585</v>
+      </c>
+      <c r="G27">
+        <v>585</v>
+      </c>
+      <c r="H27">
+        <v>41.3</v>
+      </c>
+      <c r="I27">
+        <v>573</v>
+      </c>
+      <c r="J27">
+        <v>37.5</v>
+      </c>
+      <c r="K27">
+        <v>366</v>
+      </c>
+      <c r="L27">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="M27">
+        <v>431</v>
+      </c>
+      <c r="N27">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O27">
+        <v>431</v>
+      </c>
+      <c r="P27">
+        <v>34.9</v>
+      </c>
+      <c r="Q27">
+        <v>476</v>
+      </c>
+      <c r="R27">
+        <v>29.9</v>
+      </c>
+      <c r="S27">
+        <v>329</v>
+      </c>
+      <c r="T27">
+        <v>24</v>
+      </c>
+      <c r="U27">
+        <v>390</v>
+      </c>
+      <c r="V27">
+        <v>23.9</v>
+      </c>
+      <c r="W27" s="1">
+        <v>402</v>
+      </c>
+      <c r="X27">
+        <v>22.4</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>354</v>
+      </c>
+      <c r="Z27">
+        <v>16.5</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>342</v>
+      </c>
+      <c r="AB27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -870,8 +3675,77 @@
       <c r="D28">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>268</v>
+      </c>
+      <c r="G28">
+        <v>268</v>
+      </c>
+      <c r="H28">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I28">
+        <v>268</v>
+      </c>
+      <c r="J28">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K28">
+        <v>410</v>
+      </c>
+      <c r="L28">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>452</v>
+      </c>
+      <c r="N28">
+        <v>28.3</v>
+      </c>
+      <c r="O28">
+        <v>451</v>
+      </c>
+      <c r="P28">
+        <v>28.5</v>
+      </c>
+      <c r="Q28">
+        <v>573</v>
+      </c>
+      <c r="R28">
+        <v>24.8</v>
+      </c>
+      <c r="S28">
+        <v>552</v>
+      </c>
+      <c r="T28">
+        <v>24.3</v>
+      </c>
+      <c r="U28">
+        <v>704</v>
+      </c>
+      <c r="V28">
+        <v>23.7</v>
+      </c>
+      <c r="W28" s="1">
+        <v>794</v>
+      </c>
+      <c r="X28">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>652</v>
+      </c>
+      <c r="Z28">
+        <v>22.8</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>740</v>
+      </c>
+      <c r="AB28">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -884,8 +3758,77 @@
       <c r="D29">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>500</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>33.1</v>
+      </c>
+      <c r="I29">
+        <v>494</v>
+      </c>
+      <c r="J29">
+        <v>32</v>
+      </c>
+      <c r="K29">
+        <v>568</v>
+      </c>
+      <c r="L29">
+        <v>34.1</v>
+      </c>
+      <c r="M29">
+        <v>375</v>
+      </c>
+      <c r="N29">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O29">
+        <v>723</v>
+      </c>
+      <c r="P29">
+        <v>37.4</v>
+      </c>
+      <c r="Q29">
+        <v>698</v>
+      </c>
+      <c r="R29">
+        <v>33.9</v>
+      </c>
+      <c r="S29">
+        <v>685</v>
+      </c>
+      <c r="T29">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="U29">
+        <v>598</v>
+      </c>
+      <c r="V29">
+        <v>24.3</v>
+      </c>
+      <c r="W29" s="1">
+        <v>647</v>
+      </c>
+      <c r="X29">
+        <v>23.3</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>570</v>
+      </c>
+      <c r="Z29">
+        <v>25.1</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>573</v>
+      </c>
+      <c r="AB29">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -898,8 +3841,77 @@
       <c r="D30">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>451</v>
+      </c>
+      <c r="G30">
+        <v>451</v>
+      </c>
+      <c r="H30">
+        <v>37.6</v>
+      </c>
+      <c r="I30">
+        <v>451</v>
+      </c>
+      <c r="J30">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K30">
+        <v>580</v>
+      </c>
+      <c r="L30">
+        <v>39.6</v>
+      </c>
+      <c r="M30">
+        <v>699</v>
+      </c>
+      <c r="N30">
+        <v>43.1</v>
+      </c>
+      <c r="O30">
+        <v>595</v>
+      </c>
+      <c r="P30">
+        <v>35.4</v>
+      </c>
+      <c r="Q30">
+        <v>586</v>
+      </c>
+      <c r="R30">
+        <v>34.1</v>
+      </c>
+      <c r="S30">
+        <v>570</v>
+      </c>
+      <c r="T30">
+        <v>29.6</v>
+      </c>
+      <c r="U30">
+        <v>591</v>
+      </c>
+      <c r="V30">
+        <v>25.9</v>
+      </c>
+      <c r="W30" s="1">
+        <v>488</v>
+      </c>
+      <c r="X30">
+        <v>23.9</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>463</v>
+      </c>
+      <c r="Z30">
+        <v>21.7</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>305</v>
+      </c>
+      <c r="AB30">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -912,8 +3924,763 @@
       <c r="D31">
         <v>35.299999999999997</v>
       </c>
+      <c r="E31">
+        <v>427</v>
+      </c>
+      <c r="G31">
+        <v>427</v>
+      </c>
+      <c r="H31">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I31">
+        <v>427</v>
+      </c>
+      <c r="J31">
+        <v>31.7</v>
+      </c>
+      <c r="K31">
+        <v>427</v>
+      </c>
+      <c r="L31">
+        <v>30.6</v>
+      </c>
+      <c r="M31">
+        <v>456</v>
+      </c>
+      <c r="N31">
+        <v>28.6</v>
+      </c>
+      <c r="O31">
+        <v>347</v>
+      </c>
+      <c r="P31">
+        <v>32.6</v>
+      </c>
+      <c r="Q31">
+        <v>390</v>
+      </c>
+      <c r="R31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S31">
+        <v>511</v>
+      </c>
+      <c r="T31">
+        <v>26.2</v>
+      </c>
+      <c r="U31">
+        <v>590</v>
+      </c>
+      <c r="V31">
+        <v>25</v>
+      </c>
+      <c r="W31" s="1">
+        <v>500</v>
+      </c>
+      <c r="X31">
+        <v>24.2</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>565</v>
+      </c>
+      <c r="Z31">
+        <v>17.5</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>538</v>
+      </c>
+      <c r="AB31">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <f>CORREL(B2:B31,E2:E31)</f>
+        <v>0.39461133115066332</v>
+      </c>
+      <c r="C33">
+        <f>CORREL(C2:C31,E2:E31)</f>
+        <v>0.25751151575648923</v>
+      </c>
+      <c r="D33">
+        <f>CORREL(D2:D31,E2:E31)</f>
+        <v>0.28619131571999928</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>2013</v>
+      </c>
+      <c r="H34">
+        <f>CORREL(AA2:AA31,AB2:AB31)</f>
+        <v>0.25511465183722565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>2014</v>
+      </c>
+      <c r="H35">
+        <f>CORREL(Y2:Y31,Z2:Z31)</f>
+        <v>0.43449558966055546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>2015</v>
+      </c>
+      <c r="H36">
+        <f>CORREL(W2:W31,X2:X31)</f>
+        <v>0.24131993716424818</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>2016</v>
+      </c>
+      <c r="H37">
+        <f>CORREL(U2:U31,V2:V31)</f>
+        <v>0.31153485336625397</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>2017</v>
+      </c>
+      <c r="H38">
+        <f>CORREL(S2:S31,T2:T31)</f>
+        <v>0.23664689383506721</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39">
+        <f>CORREL(Q2:Q31,R2:R31)</f>
+        <v>0.3176422116991322</v>
+      </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>2019</v>
+      </c>
+      <c r="H40">
+        <f>CORREL(O2:O31,P2:P31)</f>
+        <v>0.17345050304464274</v>
+      </c>
+      <c r="U40" s="1"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>2020</v>
+      </c>
+      <c r="H41">
+        <f>CORREL(M2:M31,N2:N31)</f>
+        <v>9.5933254936175605E-2</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>2021</v>
+      </c>
+      <c r="H42">
+        <f>CORREL(K2:K31,L2:L31)</f>
+        <v>-6.3310909014669028E-2</v>
+      </c>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>2022</v>
+      </c>
+      <c r="H43">
+        <f>CORREL(I2:I31,J2:J31)</f>
+        <v>0.26444823272072043</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>2023</v>
+      </c>
+      <c r="H44">
+        <f>CORREL(G2:G31,H2:H31)</f>
+        <v>0.28619131571999928</v>
+      </c>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U53" s="1"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U54" s="1"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U55" s="1"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U56" s="1"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U57" s="1"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="U58" s="1"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>